--- a/Results_Collection/Resnet152 pretrained results/RDM_Evaluation_Results/R2_squared_linear_regression/R² and noise ceilling results.xlsx
+++ b/Results_Collection/Resnet152 pretrained results/RDM_Evaluation_Results/R2_squared_linear_regression/R² and noise ceilling results.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\PycharmProjects\untitled2\Numerosity-in-Neural-Networks\Results_Collection\Resnet152 pretrained results\RDM_Evaluation_Results\R2_squared_linear_regression\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86E4569-98E3-4396-854E-20650F02C1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="25">
   <si>
     <t>ROI</t>
   </si>
@@ -80,13 +97,22 @@
   </si>
   <si>
     <t>fc</t>
+  </si>
+  <si>
+    <t>AVG NC V13</t>
+  </si>
+  <si>
+    <t>AVG NC V3ABV7</t>
+  </si>
+  <si>
+    <t>AVG NC IPS15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,15 +171,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -195,7 +229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,9 +261,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,6 +313,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,14 +506,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -477,19 +549,19 @@
         <v>0.1698816822706169</v>
       </c>
       <c r="D2">
-        <v>54.33587857054798</v>
+        <v>54.335878570547983</v>
       </c>
       <c r="E2">
-        <v>1.282916548575024E-05</v>
+        <v>1.2829165485750241E-5</v>
       </c>
       <c r="F2">
-        <v>0.3126510267981549</v>
+        <v>0.31265102679815487</v>
       </c>
       <c r="G2">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -497,22 +569,22 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>0.2090242354006943</v>
+        <v>0.20902423540069431</v>
       </c>
       <c r="D3">
-        <v>66.85544504404865</v>
+        <v>66.855445044048651</v>
       </c>
       <c r="E3">
-        <v>7.007499334809821E-06</v>
+        <v>7.0074993348098208E-6</v>
       </c>
       <c r="F3">
-        <v>0.3126510267981549</v>
+        <v>0.31265102679815487</v>
       </c>
       <c r="G3">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -520,22 +592,22 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>0.1273741457074832</v>
+        <v>0.12737414570748321</v>
       </c>
       <c r="D4">
-        <v>40.74003754662702</v>
+        <v>40.740037546627022</v>
       </c>
       <c r="E4">
-        <v>1.335547993529148E-05</v>
+        <v>1.335547993529148E-5</v>
       </c>
       <c r="F4">
-        <v>0.3126510267981549</v>
+        <v>0.31265102679815487</v>
       </c>
       <c r="G4">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -543,22 +615,22 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>0.2170866699993176</v>
+        <v>0.21708666999931761</v>
       </c>
       <c r="D5">
-        <v>69.43417785077901</v>
+        <v>69.434177850779008</v>
       </c>
       <c r="E5">
-        <v>5.859960244798468E-06</v>
+        <v>5.8599602447984683E-6</v>
       </c>
       <c r="F5">
-        <v>0.3126510267981549</v>
+        <v>0.31265102679815487</v>
       </c>
       <c r="G5">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -566,22 +638,22 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>0.241499874111169</v>
+        <v>0.24149987411116899</v>
       </c>
       <c r="D6">
-        <v>77.24262945315046</v>
+        <v>77.242629453150457</v>
       </c>
       <c r="E6">
-        <v>7.712973438344887E-06</v>
+        <v>7.7129734383448865E-6</v>
       </c>
       <c r="F6">
-        <v>0.3126510267981549</v>
+        <v>0.31265102679815487</v>
       </c>
       <c r="G6">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -589,22 +661,22 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>0.1737152698772015</v>
+        <v>0.17371526987720151</v>
       </c>
       <c r="D7">
-        <v>46.18541054454926</v>
+        <v>46.185410544549264</v>
       </c>
       <c r="E7">
-        <v>3.37134590414147E-06</v>
+        <v>3.3713459041414701E-6</v>
       </c>
       <c r="F7">
-        <v>0.3761258540933402</v>
+        <v>0.37612585409334021</v>
       </c>
       <c r="G7">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -612,22 +684,22 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>0.240433269269053</v>
+        <v>0.24043326926905301</v>
       </c>
       <c r="D8">
-        <v>63.92362201439803</v>
+        <v>63.923622014398028</v>
       </c>
       <c r="E8">
-        <v>1.571747046728562E-06</v>
+        <v>1.5717470467285619E-6</v>
       </c>
       <c r="F8">
-        <v>0.3761258540933402</v>
+        <v>0.37612585409334021</v>
       </c>
       <c r="G8">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -635,22 +707,22 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>0.180422670575511</v>
+        <v>0.18042267057551101</v>
       </c>
       <c r="D9">
-        <v>47.96869681038648</v>
+        <v>47.968696810386483</v>
       </c>
       <c r="E9">
-        <v>5.568991058548638E-06</v>
+        <v>5.5689910585486384E-6</v>
       </c>
       <c r="F9">
-        <v>0.3761258540933402</v>
+        <v>0.37612585409334021</v>
       </c>
       <c r="G9">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -661,19 +733,19 @@
         <v>0.2499034515746103</v>
       </c>
       <c r="D10">
-        <v>66.44144475976216</v>
+        <v>66.441444759762163</v>
       </c>
       <c r="E10">
-        <v>5.587727797240445E-07</v>
+        <v>5.5877277972404449E-7</v>
       </c>
       <c r="F10">
-        <v>0.3761258540933402</v>
+        <v>0.37612585409334021</v>
       </c>
       <c r="G10">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -681,22 +753,22 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>0.290565777101076</v>
+        <v>0.29056577710107601</v>
       </c>
       <c r="D11">
         <v>77.25227445517973</v>
       </c>
       <c r="E11">
-        <v>3.901676924929152E-07</v>
+        <v>3.901676924929152E-7</v>
       </c>
       <c r="F11">
-        <v>0.3761258540933402</v>
+        <v>0.37612585409334021</v>
       </c>
       <c r="G11">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -704,22 +776,22 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>0.1318988189816711</v>
+        <v>0.13189881898167111</v>
       </c>
       <c r="D12">
-        <v>43.38607080313319</v>
+        <v>43.386070803133187</v>
       </c>
       <c r="E12">
-        <v>4.608519985646071E-06</v>
+        <v>4.608519985646071E-6</v>
       </c>
       <c r="F12">
-        <v>0.3040119018386562</v>
+        <v>0.30401190183865617</v>
       </c>
       <c r="G12">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -727,22 +799,22 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>0.1906224608663205</v>
+        <v>0.19062246086632051</v>
       </c>
       <c r="D13">
         <v>62.7023020195725</v>
       </c>
       <c r="E13">
-        <v>3.446932513248914E-06</v>
+        <v>3.4469325132489138E-6</v>
       </c>
       <c r="F13">
-        <v>0.3040119018386562</v>
+        <v>0.30401190183865617</v>
       </c>
       <c r="G13">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -750,22 +822,22 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>0.1545539330701546</v>
+        <v>0.15455393307015461</v>
       </c>
       <c r="D14">
-        <v>50.83811921027316</v>
+        <v>50.838119210273163</v>
       </c>
       <c r="E14">
-        <v>2.029855747644258E-05</v>
+        <v>2.029855747644258E-5</v>
       </c>
       <c r="F14">
-        <v>0.3040119018386562</v>
+        <v>0.30401190183865617</v>
       </c>
       <c r="G14">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -773,22 +845,22 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>0.2062734556316264</v>
+        <v>0.20627345563162641</v>
       </c>
       <c r="D15">
-        <v>67.8504540065997</v>
+        <v>67.850454006599705</v>
       </c>
       <c r="E15">
-        <v>1.782925914517715E-06</v>
+        <v>1.7829259145177149E-6</v>
       </c>
       <c r="F15">
-        <v>0.3040119018386562</v>
+        <v>0.30401190183865617</v>
       </c>
       <c r="G15">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -799,19 +871,19 @@
         <v>0.238687889033246</v>
       </c>
       <c r="D16">
-        <v>78.5126791384376</v>
+        <v>78.512679138437605</v>
       </c>
       <c r="E16">
-        <v>1.365538188665593E-06</v>
+        <v>1.3655381886655929E-6</v>
       </c>
       <c r="F16">
-        <v>0.3040119018386562</v>
+        <v>0.30401190183865617</v>
       </c>
       <c r="G16">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -819,22 +891,22 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.04851580017019886</v>
+        <v>4.851580017019886E-2</v>
       </c>
       <c r="D17">
-        <v>54.8401054114337</v>
+        <v>54.840105411433697</v>
       </c>
       <c r="E17">
-        <v>0.001354632463949691</v>
+        <v>1.3546324639496911E-3</v>
       </c>
       <c r="F17">
-        <v>0.08846773689841179</v>
+        <v>8.8467736898411795E-2</v>
       </c>
       <c r="G17">
-        <v>0.1583347820766693</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>0.15833478207666929</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -842,22 +914,22 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.07345135852591859</v>
+        <v>7.3451358525918595E-2</v>
       </c>
       <c r="D18">
-        <v>83.02615292427269</v>
+        <v>83.026152924272694</v>
       </c>
       <c r="E18">
-        <v>0.0003411896725468509</v>
+        <v>3.4118967254685088E-4</v>
       </c>
       <c r="F18">
-        <v>0.08846773689841179</v>
+        <v>8.8467736898411795E-2</v>
       </c>
       <c r="G18">
-        <v>0.1583347820766693</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>0.15833478207666929</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -865,22 +937,22 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.06186639224613814</v>
+        <v>6.1866392246138137E-2</v>
       </c>
       <c r="D19">
-        <v>69.93102165276343</v>
+        <v>69.931021652763434</v>
       </c>
       <c r="E19">
-        <v>4.341509748886011E-05</v>
+        <v>4.3415097488860108E-5</v>
       </c>
       <c r="F19">
-        <v>0.08846773689841179</v>
+        <v>8.8467736898411795E-2</v>
       </c>
       <c r="G19">
-        <v>0.1583347820766693</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.15833478207666929</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -888,22 +960,22 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.07388135424321099</v>
+        <v>7.3881354243210989E-2</v>
       </c>
       <c r="D20">
-        <v>83.5122009824322</v>
+        <v>83.512200982432205</v>
       </c>
       <c r="E20">
-        <v>0.0006347163546141406</v>
+        <v>6.3471635461414058E-4</v>
       </c>
       <c r="F20">
-        <v>0.08846773689841179</v>
+        <v>8.8467736898411795E-2</v>
       </c>
       <c r="G20">
-        <v>0.1583347820766693</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.15833478207666929</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -911,22 +983,22 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.08780855468659934</v>
+        <v>8.7808554686599344E-2</v>
       </c>
       <c r="D21">
-        <v>99.25488970903665</v>
+        <v>99.254889709036647</v>
       </c>
       <c r="E21">
-        <v>0.001030114046529329</v>
+        <v>1.0301140465293289E-3</v>
       </c>
       <c r="F21">
-        <v>0.08846773689841179</v>
+        <v>8.8467736898411795E-2</v>
       </c>
       <c r="G21">
-        <v>0.1583347820766693</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.15833478207666929</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -934,22 +1006,22 @@
         <v>17</v>
       </c>
       <c r="C22">
-        <v>0.03271624675081551</v>
+        <v>3.2716246750815511E-2</v>
       </c>
       <c r="D22">
         <v>29.60654008745411</v>
       </c>
       <c r="E22">
-        <v>0.0007340726275344849</v>
+        <v>7.3407262753448488E-4</v>
       </c>
       <c r="F22">
         <v>0.1105034450299688</v>
       </c>
       <c r="G22">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -957,22 +1029,22 @@
         <v>18</v>
       </c>
       <c r="C23">
-        <v>0.04805665614042957</v>
+        <v>4.8056656140429567E-2</v>
       </c>
       <c r="D23">
-        <v>43.48883071237871</v>
+        <v>43.488830712378707</v>
       </c>
       <c r="E23">
-        <v>0.0005944014127156542</v>
+        <v>5.9440141271565423E-4</v>
       </c>
       <c r="F23">
         <v>0.1105034450299688</v>
       </c>
       <c r="G23">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -980,22 +1052,22 @@
         <v>19</v>
       </c>
       <c r="C24">
-        <v>0.03217484677089561</v>
+        <v>3.2174846770895611E-2</v>
       </c>
       <c r="D24">
-        <v>29.11660062921091</v>
+        <v>29.116600629210911</v>
       </c>
       <c r="E24">
-        <v>0.004393307834307403</v>
+        <v>4.3933078343074026E-3</v>
       </c>
       <c r="F24">
         <v>0.1105034450299688</v>
       </c>
       <c r="G24">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1003,22 +1075,22 @@
         <v>20</v>
       </c>
       <c r="C25">
-        <v>0.04393163533624107</v>
+        <v>4.3931635336241073E-2</v>
       </c>
       <c r="D25">
-        <v>39.75589659157389</v>
+        <v>39.755896591573887</v>
       </c>
       <c r="E25">
-        <v>0.000123205774205762</v>
+        <v>1.2320577420576201E-4</v>
       </c>
       <c r="F25">
         <v>0.1105034450299688</v>
       </c>
       <c r="G25">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1026,22 +1098,22 @@
         <v>21</v>
       </c>
       <c r="C26">
-        <v>0.05578305236478782</v>
+        <v>5.5783052364787818E-2</v>
       </c>
       <c r="D26">
-        <v>50.48082650243108</v>
+        <v>50.480826502431078</v>
       </c>
       <c r="E26">
-        <v>0.0002040894180423478</v>
+        <v>2.040894180423478E-4</v>
       </c>
       <c r="F26">
         <v>0.1105034450299688</v>
       </c>
       <c r="G26">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1049,22 +1121,22 @@
         <v>17</v>
       </c>
       <c r="C27">
-        <v>0.03816787488063812</v>
+        <v>3.8167874880638122E-2</v>
       </c>
       <c r="D27">
-        <v>27.27728652782472</v>
+        <v>27.277286527824721</v>
       </c>
       <c r="E27">
-        <v>0.0004627210483337801</v>
+        <v>4.627210483337801E-4</v>
       </c>
       <c r="F27">
         <v>0.1399254828434062</v>
       </c>
       <c r="G27">
-        <v>0.2047041660059261</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.20470416600592611</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1072,22 +1144,22 @@
         <v>18</v>
       </c>
       <c r="C28">
-        <v>0.05025267884837019</v>
+        <v>5.0252678848370189E-2</v>
       </c>
       <c r="D28">
-        <v>35.91388632520147</v>
+        <v>35.913886325201467</v>
       </c>
       <c r="E28">
-        <v>0.0002215768425218833</v>
+        <v>2.2157684252188331E-4</v>
       </c>
       <c r="F28">
         <v>0.1399254828434062</v>
       </c>
       <c r="G28">
-        <v>0.2047041660059261</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.20470416600592611</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1095,22 +1167,22 @@
         <v>19</v>
       </c>
       <c r="C29">
-        <v>0.02384977131409132</v>
+        <v>2.3849771314091321E-2</v>
       </c>
       <c r="D29">
-        <v>17.04462320189536</v>
+        <v>17.044623201895359</v>
       </c>
       <c r="E29">
-        <v>0.0007536505400035625</v>
+        <v>7.5365054000356251E-4</v>
       </c>
       <c r="F29">
         <v>0.1399254828434062</v>
       </c>
       <c r="G29">
-        <v>0.2047041660059261</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.20470416600592611</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1118,22 +1190,22 @@
         <v>20</v>
       </c>
       <c r="C30">
-        <v>0.04475089098699674</v>
+        <v>4.4750890986996743E-2</v>
       </c>
       <c r="D30">
-        <v>31.98194501646172</v>
+        <v>31.981945016461719</v>
       </c>
       <c r="E30">
-        <v>0.0004021134393473425</v>
+        <v>4.0211343934734247E-4</v>
       </c>
       <c r="F30">
         <v>0.1399254828434062</v>
       </c>
       <c r="G30">
-        <v>0.2047041660059261</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.20470416600592611</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1141,22 +1213,22 @@
         <v>21</v>
       </c>
       <c r="C31">
-        <v>0.05746629533166715</v>
+        <v>5.7466295331667153E-2</v>
       </c>
       <c r="D31">
         <v>41.06921352987505</v>
       </c>
       <c r="E31">
-        <v>0.000880819378692072</v>
+        <v>8.8081937869207197E-4</v>
       </c>
       <c r="F31">
         <v>0.1399254828434062</v>
       </c>
       <c r="G31">
-        <v>0.2047041660059261</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.20470416600592611</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -1164,22 +1236,22 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>0.02710653923672183</v>
+        <v>2.7106539236721829E-2</v>
       </c>
       <c r="D32">
-        <v>25.75583756535489</v>
+        <v>25.755837565354891</v>
       </c>
       <c r="E32">
-        <v>0.003645674140180699</v>
+        <v>3.6456741401806989E-3</v>
       </c>
       <c r="F32">
         <v>0.1052442545032347</v>
       </c>
       <c r="G32">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.16991548181332139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -1187,22 +1259,22 @@
         <v>18</v>
       </c>
       <c r="C33">
-        <v>0.03385214694865466</v>
+        <v>3.3852146948654661E-2</v>
       </c>
       <c r="D33">
-        <v>32.16531592003838</v>
+        <v>32.165315920038381</v>
       </c>
       <c r="E33">
-        <v>0.002842395944905133</v>
+        <v>2.842395944905133E-3</v>
       </c>
       <c r="F33">
         <v>0.1052442545032347</v>
       </c>
       <c r="G33">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.16991548181332139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -1210,22 +1282,22 @@
         <v>19</v>
       </c>
       <c r="C34">
-        <v>0.01453539752324211</v>
+        <v>1.453539752324211E-2</v>
       </c>
       <c r="D34">
-        <v>13.81110787648304</v>
+        <v>13.811107876483041</v>
       </c>
       <c r="E34">
-        <v>0.003153759766369304</v>
+        <v>3.1537597663693039E-3</v>
       </c>
       <c r="F34">
         <v>0.1052442545032347</v>
       </c>
       <c r="G34">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.16991548181332139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -1233,22 +1305,22 @@
         <v>20</v>
       </c>
       <c r="C35">
-        <v>0.03143048117617538</v>
+        <v>3.1430481176175383E-2</v>
       </c>
       <c r="D35">
         <v>29.8643202182684</v>
       </c>
       <c r="E35">
-        <v>0.003734081201858013</v>
+        <v>3.7340812018580131E-3</v>
       </c>
       <c r="F35">
         <v>0.1052442545032347</v>
       </c>
       <c r="G35">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.16991548181332139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -1256,22 +1328,25 @@
         <v>21</v>
       </c>
       <c r="C36">
-        <v>0.04079135179697931</v>
+        <v>4.0791351796979312E-2</v>
       </c>
       <c r="D36">
-        <v>38.75874458849967</v>
+        <v>38.758744588499667</v>
       </c>
       <c r="E36">
-        <v>0.006339897158333204</v>
+        <v>6.3398971583332039E-3</v>
       </c>
       <c r="F36">
         <v>0.1052442545032347</v>
       </c>
       <c r="G36">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.16991548181332139</v>
+      </c>
+      <c r="I36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -1279,22 +1354,26 @@
         <v>17</v>
       </c>
       <c r="C37">
-        <v>0.1790789619826054</v>
+        <v>0.17907896198260539</v>
       </c>
       <c r="D37">
-        <v>46.59032149691305</v>
+        <v>46.590321496913049</v>
       </c>
       <c r="E37">
-        <v>2.350358724336736E-06</v>
+        <v>2.350358724336736E-6</v>
       </c>
       <c r="F37">
-        <v>0.3843694489089771</v>
+        <v>0.38436944890897712</v>
       </c>
       <c r="G37">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>0.43125623807167401</v>
+      </c>
+      <c r="I37">
+        <f>SUM(D37:D41) / 5</f>
+        <v>59.730776897134589</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -1305,19 +1384,19 @@
         <v>0.2438022251294216</v>
       </c>
       <c r="D38">
-        <v>63.42913720678062</v>
+        <v>63.429137206780617</v>
       </c>
       <c r="E38">
-        <v>1.348175186520262E-06</v>
+        <v>1.3481751865202621E-6</v>
       </c>
       <c r="F38">
-        <v>0.3843694489089771</v>
+        <v>0.38436944890897712</v>
       </c>
       <c r="G38">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.43125623807167401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -1325,22 +1404,22 @@
         <v>19</v>
       </c>
       <c r="C39">
-        <v>0.1749439356560142</v>
+        <v>0.17494393565601421</v>
       </c>
       <c r="D39">
-        <v>45.51452675351492</v>
+        <v>45.514526753514922</v>
       </c>
       <c r="E39">
-        <v>5.075688369209889E-06</v>
+        <v>5.0756883692098888E-6</v>
       </c>
       <c r="F39">
-        <v>0.3843694489089771</v>
+        <v>0.38436944890897712</v>
       </c>
       <c r="G39">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.43125623807167401</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -1348,22 +1427,22 @@
         <v>20</v>
       </c>
       <c r="C40">
-        <v>0.255769906018061</v>
+        <v>0.25576990601806099</v>
       </c>
       <c r="D40">
-        <v>66.54272516820924</v>
+        <v>66.542725168209245</v>
       </c>
       <c r="E40">
-        <v>6.746061775122398E-07</v>
+        <v>6.7460617751223982E-7</v>
       </c>
       <c r="F40">
-        <v>0.3843694489089771</v>
+        <v>0.38436944890897712</v>
       </c>
       <c r="G40">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.43125623807167401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -1371,22 +1450,25 @@
         <v>21</v>
       </c>
       <c r="C41">
-        <v>0.2943392611567319</v>
+        <v>0.29433926115673192</v>
       </c>
       <c r="D41">
-        <v>76.57717386025514</v>
+        <v>76.577173860255144</v>
       </c>
       <c r="E41">
-        <v>5.650775849185978E-07</v>
+        <v>5.6507758491859781E-7</v>
       </c>
       <c r="F41">
-        <v>0.3843694489089771</v>
+        <v>0.38436944890897712</v>
       </c>
       <c r="G41">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.43125623807167401</v>
+      </c>
+      <c r="I41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -1394,22 +1476,26 @@
         <v>17</v>
       </c>
       <c r="C42">
-        <v>0.04728048443603441</v>
+        <v>4.7280484436034408E-2</v>
       </c>
       <c r="D42">
-        <v>35.75333177757553</v>
+        <v>35.753331777575532</v>
       </c>
       <c r="E42">
-        <v>0.0002188475893435833</v>
+        <v>2.1884758934358331E-4</v>
       </c>
       <c r="F42">
-        <v>0.1322407789298359</v>
+        <v>0.13224077892983591</v>
       </c>
       <c r="G42">
         <v>0.2010336813249024</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="I42">
+        <f>SUM(D42:D46) / 5</f>
+        <v>50.047621827353275</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -1417,22 +1503,22 @@
         <v>18</v>
       </c>
       <c r="C43">
-        <v>0.07232085207751733</v>
+        <v>7.2320852077517331E-2</v>
       </c>
       <c r="D43">
-        <v>54.68876746097302</v>
+        <v>54.688767460973018</v>
       </c>
       <c r="E43">
-        <v>3.915726772880439E-05</v>
+        <v>3.9157267728804388E-5</v>
       </c>
       <c r="F43">
-        <v>0.1322407789298359</v>
+        <v>0.13224077892983591</v>
       </c>
       <c r="G43">
         <v>0.2010336813249024</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -1440,22 +1526,22 @@
         <v>19</v>
       </c>
       <c r="C44">
-        <v>0.05516617120990429</v>
+        <v>5.5166171209904288E-2</v>
       </c>
       <c r="D44">
-        <v>41.71645967026124</v>
+        <v>41.716459670261237</v>
       </c>
       <c r="E44">
-        <v>5.775110180126681E-05</v>
+        <v>5.7751101801266808E-5</v>
       </c>
       <c r="F44">
-        <v>0.1322407789298359</v>
+        <v>0.13224077892983591</v>
       </c>
       <c r="G44">
         <v>0.2010336813249024</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -1463,22 +1549,25 @@
         <v>20</v>
       </c>
       <c r="C45">
-        <v>0.0698213403475233</v>
+        <v>6.9821340347523297E-2</v>
       </c>
       <c r="D45">
-        <v>52.79864570713775</v>
+        <v>52.798645707137752</v>
       </c>
       <c r="E45">
-        <v>3.228144244285228E-05</v>
+        <v>3.2281442442852278E-5</v>
       </c>
       <c r="F45">
-        <v>0.1322407789298359</v>
+        <v>0.13224077892983591</v>
       </c>
       <c r="G45">
         <v>0.2010336813249024</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="I45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -1486,22 +1575,26 @@
         <v>21</v>
       </c>
       <c r="C46">
-        <v>0.08632797663077325</v>
+        <v>8.6327976630773254E-2</v>
       </c>
       <c r="D46">
-        <v>65.28090452081884</v>
+        <v>65.280904520818837</v>
       </c>
       <c r="E46">
-        <v>7.156120249710615E-05</v>
+        <v>7.1561202497106148E-5</v>
       </c>
       <c r="F46">
-        <v>0.1322407789298359</v>
+        <v>0.13224077892983591</v>
       </c>
       <c r="G46">
         <v>0.2010336813249024</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="I46">
+        <f>SUM(D47:D51) / 5</f>
+        <v>27.882184035624949</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -1509,22 +1602,22 @@
         <v>17</v>
       </c>
       <c r="C47">
-        <v>0.03536900677449452</v>
+        <v>3.5369006774494519E-2</v>
       </c>
       <c r="D47">
-        <v>25.24441179273147</v>
+        <v>25.244411792731469</v>
       </c>
       <c r="E47">
-        <v>0.0007348722588214327</v>
+        <v>7.3487225882143273E-4</v>
       </c>
       <c r="F47">
-        <v>0.1401062819957571</v>
+        <v>0.14010628199575709</v>
       </c>
       <c r="G47">
-        <v>0.2045781121629859</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.20457811216298591</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -1532,22 +1625,22 @@
         <v>18</v>
       </c>
       <c r="C48">
-        <v>0.04561582405460114</v>
+        <v>4.5615824054601142E-2</v>
       </c>
       <c r="D48">
-        <v>32.55801481905183</v>
+        <v>32.558014819051827</v>
       </c>
       <c r="E48">
-        <v>0.0003870579184436154</v>
+        <v>3.8705791844361538E-4</v>
       </c>
       <c r="F48">
-        <v>0.1401062819957571</v>
+        <v>0.14010628199575709</v>
       </c>
       <c r="G48">
-        <v>0.2045781121629859</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.20457811216298591</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -1555,22 +1648,22 @@
         <v>19</v>
       </c>
       <c r="C49">
-        <v>0.02039897135402461</v>
+        <v>2.039897135402461E-2</v>
       </c>
       <c r="D49">
         <v>14.55964076945698</v>
       </c>
       <c r="E49">
-        <v>0.001057199337638039</v>
+        <v>1.057199337638039E-3</v>
       </c>
       <c r="F49">
-        <v>0.1401062819957571</v>
+        <v>0.14010628199575709</v>
       </c>
       <c r="G49">
-        <v>0.2045781121629859</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.20457811216298591</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -1578,22 +1671,22 @@
         <v>20</v>
       </c>
       <c r="C50">
-        <v>0.04106203916948483</v>
+        <v>4.1062039169484831E-2</v>
       </c>
       <c r="D50">
-        <v>29.30777876949752</v>
+        <v>29.307778769497521</v>
       </c>
       <c r="E50">
-        <v>0.0006638537109834935</v>
+        <v>6.6385371098349349E-4</v>
       </c>
       <c r="F50">
-        <v>0.1401062819957571</v>
+        <v>0.14010628199575709</v>
       </c>
       <c r="G50">
-        <v>0.2045781121629859</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.20457811216298591</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -1601,19 +1694,19 @@
         <v>21</v>
       </c>
       <c r="C51">
-        <v>0.05287761560503823</v>
+        <v>5.2877615605038231E-2</v>
       </c>
       <c r="D51">
-        <v>37.74107402738696</v>
+        <v>37.741074027386958</v>
       </c>
       <c r="E51">
-        <v>0.001403984893574276</v>
+        <v>1.403984893574276E-3</v>
       </c>
       <c r="F51">
-        <v>0.1401062819957571</v>
+        <v>0.14010628199575709</v>
       </c>
       <c r="G51">
-        <v>0.2045781121629859</v>
+        <v>0.20457811216298591</v>
       </c>
     </row>
   </sheetData>
